--- a/ethnicity_demographics.xlsx
+++ b/ethnicity_demographics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mckennaquam/Desktop/DS4200/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mckennaquam/Desktop/DS4200/DS4200_BtC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3021E7D-AABE-204D-AAA2-606C5A287BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A9D0E-A91E-EF4D-BF29-9A428AD9FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19320" yWindow="760" windowWidth="10000" windowHeight="17300" xr2:uid="{C083B257-9C09-FB47-8730-01206615EDA8}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>White</t>
   </si>
   <si>
-    <t>American Indian/Alaskan</t>
-  </si>
-  <si>
     <t>Mixed/Other</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>ethnicity</t>
+  </si>
+  <si>
+    <t>American Indian</t>
   </si>
 </sst>
 </file>
@@ -445,18 +445,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F331FF0E-108A-4443-B162-F55DF867CB97}">
   <dimension ref="A1:B533"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -2872,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="B304" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="B305" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -2896,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -2904,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="B307" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -2912,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="B308" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -3024,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="B322" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -3032,7 +3032,7 @@
         <v>3</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -3040,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="B324" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -3048,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="B325" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -3056,7 +3056,7 @@
         <v>3</v>
       </c>
       <c r="B326" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -3064,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="B327" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -3072,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="B328" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -3080,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="B329" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -3088,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="B330" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -3960,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="B439" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -3968,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="B440" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -3976,7 +3976,7 @@
         <v>4</v>
       </c>
       <c r="B441" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -3984,7 +3984,7 @@
         <v>4</v>
       </c>
       <c r="B442" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -3992,7 +3992,7 @@
         <v>4</v>
       </c>
       <c r="B443" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -4064,7 +4064,7 @@
         <v>5</v>
       </c>
       <c r="B452" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -4672,7 +4672,7 @@
         <v>6</v>
       </c>
       <c r="B528" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -4680,7 +4680,7 @@
         <v>6</v>
       </c>
       <c r="B529" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -4688,7 +4688,7 @@
         <v>6</v>
       </c>
       <c r="B530" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -4696,7 +4696,7 @@
         <v>6</v>
       </c>
       <c r="B531" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -4704,7 +4704,7 @@
         <v>6</v>
       </c>
       <c r="B532" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -4712,7 +4712,7 @@
         <v>6</v>
       </c>
       <c r="B533" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
